--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H2">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J2">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N2">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O2">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P2">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q2">
-        <v>0.3664136790346667</v>
+        <v>0.5581503377962223</v>
       </c>
       <c r="R2">
-        <v>3.297723111312</v>
+        <v>5.023353040166</v>
       </c>
       <c r="S2">
-        <v>0.008828988355919663</v>
+        <v>0.0318079908557617</v>
       </c>
       <c r="T2">
-        <v>0.008828988355919665</v>
+        <v>0.03180799085576171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H3">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J3">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.218696</v>
       </c>
       <c r="O3">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P3">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q3">
-        <v>0.04238950548622222</v>
+        <v>0.1759024901031111</v>
       </c>
       <c r="R3">
-        <v>0.381505549376</v>
+        <v>1.583122410928</v>
       </c>
       <c r="S3">
-        <v>0.001021404144455098</v>
+        <v>0.01002436873691943</v>
       </c>
       <c r="T3">
-        <v>0.001021404144455099</v>
+        <v>0.01002436873691943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5814853333333333</v>
+        <v>2.412972666666667</v>
       </c>
       <c r="H4">
-        <v>1.744456</v>
+        <v>7.238918</v>
       </c>
       <c r="I4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="J4">
-        <v>0.01013679721902723</v>
+        <v>0.04202116219916398</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N4">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O4">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P4">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q4">
-        <v>0.01188614169866667</v>
+        <v>0.003313011471333334</v>
       </c>
       <c r="R4">
-        <v>0.106975275288</v>
+        <v>0.029817103242</v>
       </c>
       <c r="S4">
-        <v>0.0002864047186524674</v>
+        <v>0.0001888026064828399</v>
       </c>
       <c r="T4">
-        <v>0.0002864047186524674</v>
+        <v>0.0001888026064828399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>154.510379</v>
       </c>
       <c r="I5">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J5">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N5">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O5">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P5">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q5">
-        <v>32.45408105359533</v>
+        <v>11.91338543023589</v>
       </c>
       <c r="R5">
-        <v>292.086729482358</v>
+        <v>107.220468872123</v>
       </c>
       <c r="S5">
-        <v>0.7820032933245288</v>
+        <v>0.6789225575358464</v>
       </c>
       <c r="T5">
-        <v>0.7820032933245289</v>
+        <v>0.6789225575358466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>154.510379</v>
       </c>
       <c r="I6">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J6">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.218696</v>
       </c>
       <c r="O6">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P6">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q6">
         <v>3.754533538420444</v>
@@ -827,10 +827,10 @@
         <v>33.790801845784</v>
       </c>
       <c r="S6">
-        <v>0.09046805506812898</v>
+        <v>0.213964160497076</v>
       </c>
       <c r="T6">
-        <v>0.09046805506812899</v>
+        <v>0.2139641604970761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>154.510379</v>
       </c>
       <c r="I7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468352</v>
       </c>
       <c r="J7">
-        <v>0.8978388564446701</v>
+        <v>0.8969165968468353</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N7">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O7">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P7">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q7">
-        <v>1.052782219046333</v>
+        <v>0.07071425012233333</v>
       </c>
       <c r="R7">
-        <v>9.475039971417001</v>
+        <v>0.6364282511010001</v>
       </c>
       <c r="S7">
-        <v>0.02536750805201226</v>
+        <v>0.004029878813912721</v>
       </c>
       <c r="T7">
-        <v>0.02536750805201227</v>
+        <v>0.004029878813912721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H8">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I8">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J8">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N8">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O8">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P8">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q8">
-        <v>0.005142733618666667</v>
+        <v>0.0007379634474444445</v>
       </c>
       <c r="R8">
-        <v>0.046284602568</v>
+        <v>0.006641671027</v>
       </c>
       <c r="S8">
-        <v>0.0001239176860329736</v>
+        <v>4.205521881591907E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001239176860329736</v>
+        <v>4.205521881591908E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H9">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I9">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J9">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.218696</v>
       </c>
       <c r="O9">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P9">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q9">
-        <v>0.0005949503182222222</v>
+        <v>0.0002325710462222222</v>
       </c>
       <c r="R9">
-        <v>0.005354552863999999</v>
+        <v>0.002093139416</v>
       </c>
       <c r="S9">
-        <v>1.433573507892353E-05</v>
+        <v>1.325380853617293E-05</v>
       </c>
       <c r="T9">
-        <v>1.433573507892354E-05</v>
+        <v>1.325380853617293E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.008161333333333333</v>
+        <v>0.003190333333333333</v>
       </c>
       <c r="H10">
-        <v>0.024484</v>
+        <v>0.009571</v>
       </c>
       <c r="I10">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="J10">
-        <v>0.0001422732032855301</v>
+        <v>5.555865440224608E-05</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N10">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O10">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P10">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q10">
-        <v>0.0001668258146666667</v>
+        <v>4.380327666666667E-06</v>
       </c>
       <c r="R10">
-        <v>0.001501432332</v>
+        <v>3.9422949E-05</v>
       </c>
       <c r="S10">
-        <v>4.019782173632933E-06</v>
+        <v>2.496270501540783E-07</v>
       </c>
       <c r="T10">
-        <v>4.019782173632933E-06</v>
+        <v>2.496270501540783E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H11">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I11">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J11">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N11">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O11">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P11">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q11">
-        <v>3.258776629218666</v>
+        <v>0.8004703624482224</v>
       </c>
       <c r="R11">
-        <v>29.328989662968</v>
+        <v>7.204233262034001</v>
       </c>
       <c r="S11">
-        <v>0.07852245306374774</v>
+        <v>0.04561737626029552</v>
       </c>
       <c r="T11">
-        <v>0.07852245306374774</v>
+        <v>0.04561737626029552</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H12">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I12">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J12">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1187,22 +1187,22 @@
         <v>0.218696</v>
       </c>
       <c r="O12">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P12">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q12">
-        <v>0.3769999257848889</v>
+        <v>0.2522702585191112</v>
       </c>
       <c r="R12">
-        <v>3.392999332064</v>
+        <v>2.270432326672</v>
       </c>
       <c r="S12">
-        <v>0.009084071216190724</v>
+        <v>0.01437643146081213</v>
       </c>
       <c r="T12">
-        <v>0.009084071216190724</v>
+        <v>0.01437643146081213</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.171561333333333</v>
+        <v>3.460560666666667</v>
       </c>
       <c r="H13">
-        <v>15.514684</v>
+        <v>10.381682</v>
       </c>
       <c r="I13">
-        <v>0.09015372449937761</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="J13">
-        <v>0.0901537244993776</v>
+        <v>0.06026457865970317</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N13">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O13">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P13">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q13">
-        <v>0.1057118852146667</v>
+        <v>0.004751349795333334</v>
       </c>
       <c r="R13">
-        <v>0.951406966932</v>
+        <v>0.04276214815800001</v>
       </c>
       <c r="S13">
-        <v>0.002547200219439147</v>
+        <v>0.0002707709385955169</v>
       </c>
       <c r="T13">
-        <v>0.002547200219439147</v>
+        <v>0.0002707709385955169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H14">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I14">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J14">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N14">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O14">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P14">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q14">
-        <v>0.037302042398</v>
+        <v>0.00749945426311111</v>
       </c>
       <c r="R14">
-        <v>0.335718381582</v>
+        <v>0.067495088368</v>
       </c>
       <c r="S14">
-        <v>0.0008988182396782315</v>
+        <v>0.0004273805039088446</v>
       </c>
       <c r="T14">
-        <v>0.0008988182396782316</v>
+        <v>0.0004273805039088447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H15">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I15">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J15">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.218696</v>
       </c>
       <c r="O15">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P15">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q15">
-        <v>0.004315382370666667</v>
+        <v>0.002363471971555555</v>
       </c>
       <c r="R15">
-        <v>0.038838441336</v>
+        <v>0.021271247744</v>
       </c>
       <c r="S15">
-        <v>0.0001039820915047014</v>
+        <v>0.0001346900463339592</v>
       </c>
       <c r="T15">
-        <v>0.0001039820915047014</v>
+        <v>0.0001346900463339593</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.059197</v>
+        <v>0.03242133333333333</v>
       </c>
       <c r="H16">
-        <v>0.177591</v>
+        <v>0.09726399999999999</v>
       </c>
       <c r="I16">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="J16">
-        <v>0.001031957214698602</v>
+        <v>0.0005646073515599271</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N16">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O16">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P16">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q16">
-        <v>0.001210045877</v>
+        <v>4.451449066666667E-05</v>
       </c>
       <c r="R16">
-        <v>0.010890412893</v>
+        <v>0.000400630416</v>
       </c>
       <c r="S16">
-        <v>2.915688351566926E-05</v>
+        <v>2.536801317123213E-06</v>
       </c>
       <c r="T16">
-        <v>2.915688351566926E-05</v>
+        <v>2.536801317123213E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H17">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I17">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J17">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.630134</v>
+        <v>0.2313123333333333</v>
       </c>
       <c r="N17">
-        <v>1.890402</v>
+        <v>0.693937</v>
       </c>
       <c r="O17">
-        <v>0.8709840164650083</v>
+        <v>0.7569517164947553</v>
       </c>
       <c r="P17">
-        <v>0.8709840164650084</v>
+        <v>0.7569517164947555</v>
       </c>
       <c r="Q17">
-        <v>0.02517238298733333</v>
+        <v>0.002357612405444444</v>
       </c>
       <c r="R17">
-        <v>0.226551446886</v>
+        <v>0.021218511649</v>
       </c>
       <c r="S17">
-        <v>0.0006065457951008683</v>
+        <v>0.0001343561201268788</v>
       </c>
       <c r="T17">
-        <v>0.0006065457951008684</v>
+        <v>0.0001343561201268788</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H18">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I18">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J18">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.218696</v>
       </c>
       <c r="O18">
-        <v>0.1007620180600906</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="P18">
-        <v>0.1007620180600907</v>
+        <v>0.2385552472206224</v>
       </c>
       <c r="Q18">
-        <v>0.002912131636444445</v>
+        <v>0.0007430075102222222</v>
       </c>
       <c r="R18">
-        <v>0.026209184728</v>
+        <v>0.006687067592</v>
       </c>
       <c r="S18">
-        <v>7.016980473221013E-05</v>
+        <v>4.234267094457839E-05</v>
       </c>
       <c r="T18">
-        <v>7.016980473221015E-05</v>
+        <v>4.234267094457839E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.03994766666666667</v>
+        <v>0.01019233333333333</v>
       </c>
       <c r="H19">
-        <v>0.119843</v>
+        <v>0.030577</v>
       </c>
       <c r="I19">
-        <v>0.0006963914189408505</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="J19">
-        <v>0.0006963914189408506</v>
+        <v>0.0001774962883353337</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.020441</v>
+        <v>0.001373</v>
       </c>
       <c r="N19">
-        <v>0.061323</v>
+        <v>0.004119</v>
       </c>
       <c r="O19">
-        <v>0.02825396547490095</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="P19">
-        <v>0.02825396547490096</v>
+        <v>0.004493036284622232</v>
       </c>
       <c r="Q19">
-        <v>0.0008165702543333333</v>
+        <v>1.399407366666667E-05</v>
       </c>
       <c r="R19">
-        <v>0.007349132289000001</v>
+        <v>0.000125946663</v>
       </c>
       <c r="S19">
-        <v>1.967581910777208E-05</v>
+        <v>7.974972638764239E-07</v>
       </c>
       <c r="T19">
-        <v>1.967581910777208E-05</v>
+        <v>7.974972638764239E-07</v>
       </c>
     </row>
   </sheetData>
